--- a/Kelvin/Sphere.xlsx
+++ b/Kelvin/Sphere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="72" windowWidth="12456" windowHeight="8400"/>
+    <workbookView xWindow="288" yWindow="72" windowWidth="12456" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>mr</t>
     <phoneticPr fontId="1"/>
@@ -97,18 +97,73 @@
     <t>A-Ωr, Order 3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>nv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ndof</t>
+  </si>
+  <si>
+    <t>nonzero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Iterations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bz0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A_Phi-Ar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rk=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Je</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rk=4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rk=8</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
-    <numFmt numFmtId="185" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="186" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="187" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="180" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -318,46 +373,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -367,6 +422,1324 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$5:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.484746346188136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.0048831714154995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.115531339609886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11881467444285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.117508357741877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.117470282144977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.12801226435861099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.83523795601949602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4402424260780605E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9249578947191998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9980026380575905E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9863458390374E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9874837687572799E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2644204055207703E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="125215872"/>
+        <c:axId val="125217408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125215872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125217408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125217408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125215872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43861.982299263997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43298.383812815599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43242.874040401999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43239.4534279531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43238.062868105102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43237.859077030102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43237.807523069299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="125335424"/>
+        <c:axId val="125336960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125335424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125336960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125336960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43300"/>
+          <c:min val="43200"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125335424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$5:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51259.371919063196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51300.093766325597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51359.7590997515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51363.316114894304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51365.128829600399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51365.626675235901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51365.772945561701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="125348480"/>
+        <c:axId val="125350272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125348480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125350272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125350272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125348480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$5:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4736432602984304E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6977168956760788E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1351163451704067E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3437658653788065E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0220631822098549E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.97491660615422E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9629897210640488E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$5:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7649090737449581E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7188381060180637E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9005062807205236E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5932064059013845E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9462180331837591E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0431694714509483E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0716544423955029E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="125968768"/>
+        <c:axId val="125970304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125968768"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125970304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125970304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125968768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$14:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4808600010583101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25977430000784801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4649351999978499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7494918000011199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1772972999897302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.730708599992699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.167621400003501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$14:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4736432602984304E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5200959251780293E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0045971058230234E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0668905052860595E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.909407442127852E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9112135514409183E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4861898611920753E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$14:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4808600010583101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25977430000784801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4649351999978499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7494918000011199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1772972999897302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.730708599992699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.167621400003501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$14:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7649090737449581E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3451268438306164E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.656102734683805E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1070096632965613E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0908412453736616E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9433498712750323E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8428247655348984E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="126011264"/>
+        <c:axId val="126012800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126011264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126012800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126012800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126011264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2801550743657043"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.67151159230096236"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rK=2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5965781568601468E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.244816991341798E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0900674301901302E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1280367967548356E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0461789677184484E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2136691921972934E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2428466533073998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9791263563355743E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$14:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43861.982299263997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43882.061463658203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43311.6487098992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43264.191634209099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43241.898413668598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43233.261220576103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43229.1004055675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43225.077558475903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rK=4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$14:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8394603542583455E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2541418807821739E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.201076439825667E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0361832767190943E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6455410318490568E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2210458914379795E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6017115243782491E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$14:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43876.747058957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43869.935252372998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43425.458661659301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43425.690398228697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43275.689620440397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43245.489811792897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43241.868224155798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>rK=8</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$14:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3589964027269698E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8505717748640737E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6291811951746078E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.747503846792961E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1851346586013731E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4065448770768864E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8558644889164292E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$14:$V$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43867.633449333698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43350.193065364001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43327.347302153597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43294.767433335801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43251.708675861199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43244.021149754299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43241.513017277197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="126246272"/>
+        <c:axId val="126256256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126246272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000018E-3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126256256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126256256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43300"/>
+          <c:min val="43200"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126246272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16423840769903764"/>
+          <c:y val="4.6770924467774859E-2"/>
+          <c:w val="0.67151159230096247"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rK~2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5965781568601468E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.244816991341798E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0900674301901302E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1280367967548356E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0461789677184484E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2136691921972934E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2428466533073998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9791263563355743E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$14:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51259.371919063196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51280.927736569298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51315.820912457399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51351.081949462103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51354.154646979499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51352.0249101589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51350.946290517102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51349.473504412097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rK=4</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$14:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.8394603542583455E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2541418807821739E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.201076439825667E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0361832767190943E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6455410318490568E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2210458914379795E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6017115243782491E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$14:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51276.371732610402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51266.894289933603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51460.983007263698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51461.344766818103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51348.0972970191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51363.016042917901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51363.347225246602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>rK=8</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$14:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3589964027269698E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8505717748640737E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6291811951746078E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.747503846792961E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1851346586013731E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4065448770768864E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8558644889164292E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$14:$W$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>51322.651474181599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51361.142313324097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51344.228397478102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51350.8734899993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51364.391571068998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51366.556703505899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51365.188881980903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="126272640"/>
+        <c:axId val="126274176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126272640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000018E-3"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126274176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126274176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="51370"/>
+          <c:min val="51340"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126272640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,6 +1782,221 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="グラフ 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -701,7 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -1004,14 +2592,1042 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:T20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:23" ht="15">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43225</v>
+      </c>
+      <c r="M3" s="1">
+        <v>51350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="15">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="15">
+      <c r="B5">
+        <f>POWER(E5, -4/3)</f>
+        <v>6.7422181246832365E-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1">
+        <v>239</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3368</v>
+      </c>
+      <c r="G5" s="1">
+        <v>158502</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.4808600010583101E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.484746346188136</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.83523795601949602</v>
+      </c>
+      <c r="L5" s="1">
+        <v>43861.982299263997</v>
+      </c>
+      <c r="M5" s="1">
+        <v>51259.371919063196</v>
+      </c>
+      <c r="N5">
+        <f>ABS(L5-L$3)/L$3</f>
+        <v>1.4736432602984304E-2</v>
+      </c>
+      <c r="O5">
+        <f>ABS(M5-M$3)/M$3</f>
+        <v>1.7649090737449581E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15">
+      <c r="B6">
+        <f t="shared" ref="B6:B11" si="0">POWER(E6, -4/3)</f>
+        <v>1.8018502848991092E-4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>197</v>
+      </c>
+      <c r="E6" s="1">
+        <v>643</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9523</v>
+      </c>
+      <c r="G6" s="1">
+        <v>515219</v>
+      </c>
+      <c r="H6" s="1">
+        <v>75</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.26708279998274498</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-9.0048831714154995E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.4402424260780605E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>43298.383812815599</v>
+      </c>
+      <c r="M6" s="1">
+        <v>51300.093766325597</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N11" si="1">ABS(L6-L$3)/L$3</f>
+        <v>1.6977168956760788E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O11" si="2">ABS(M6-M$3)/M$3</f>
+        <v>9.7188381060180637E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="15">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5.6573162923537219E-5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>379</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1533</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24515</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1650916</v>
+      </c>
+      <c r="H7" s="1">
+        <v>106</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.0276902999903501</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.115531339609886</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.9249578947191998E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>43242.874040401999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>51359.7590997515</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>4.1351163451704067E-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1.9005062807205236E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="15">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.5817518549987656E-5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>847</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3987</v>
+      </c>
+      <c r="F8" s="1">
+        <v>66822</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5076171</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1040</v>
+      </c>
+      <c r="I8" s="1">
+        <v>27.803574699995799</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-0.11881467444285</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.9980026380575905E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>43239.4534279531</v>
+      </c>
+      <c r="M8" s="1">
+        <v>51363.316114894304</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>3.3437658653788065E-4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>2.5932064059013845E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8.6824316713644108E-6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1270</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6252</v>
+      </c>
+      <c r="F9" s="1">
+        <v>106209</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8323421</v>
+      </c>
+      <c r="H9" s="1">
+        <v>303</v>
+      </c>
+      <c r="I9" s="1">
+        <v>13.606021499988801</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-0.117508357741877</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6.9863458390374E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>43238.062868105102</v>
+      </c>
+      <c r="M9" s="1">
+        <v>51365.128829600399</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>3.0220631822098549E-4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>2.9462180331837591E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="15">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.7264416704420525E-6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2865</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14904</v>
+      </c>
+      <c r="F10" s="1">
+        <v>257238</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20890308</v>
+      </c>
+      <c r="H10" s="1">
+        <v>226</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15.967862899997201</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-0.117470282144977</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.9874837687572799E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>43237.859077030102</v>
+      </c>
+      <c r="M10" s="1">
+        <v>51365.626675235901</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2.97491660615422E-4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>3.0431694714509483E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.0919909349137309E-6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5548</v>
+      </c>
+      <c r="E11" s="1">
+        <v>29603</v>
+      </c>
+      <c r="F11" s="1">
+        <v>516871</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43043836</v>
+      </c>
+      <c r="H11" s="1">
+        <v>284</v>
+      </c>
+      <c r="I11" s="1">
+        <v>76.098491799988494</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-0.12801226435861099</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7.2644204055207703E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>43237.807523069299</v>
+      </c>
+      <c r="M11" s="1">
+        <v>51365.772945561701</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>2.9629897210640488E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>3.0716544423955029E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="15">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="15">
+      <c r="B14">
+        <f>POWER(E14, -2/3)</f>
+        <v>2.5965781568601468E-2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>105</v>
+      </c>
+      <c r="E14" s="1">
+        <v>239</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3368</v>
+      </c>
+      <c r="G14" s="1">
+        <v>158502</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.4808600010583101E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.484746346188136</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.83523795601949602</v>
+      </c>
+      <c r="L14" s="1">
+        <v>43861.982299263997</v>
+      </c>
+      <c r="M14" s="1">
+        <v>51259.371919063196</v>
+      </c>
+      <c r="N14">
+        <f>ABS(L14-L$3)/L$3</f>
+        <v>1.4736432602984304E-2</v>
+      </c>
+      <c r="O14">
+        <f>ABS(M14-M$3)/M$3</f>
+        <v>1.7649090737449581E-3</v>
+      </c>
+      <c r="P14">
+        <f>POWER(Q14, -2/3)</f>
+        <v>2.8394603542583455E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>209</v>
+      </c>
+      <c r="R14" s="1">
+        <v>43876.747058957</v>
+      </c>
+      <c r="S14" s="1">
+        <v>51276.371732610402</v>
+      </c>
+      <c r="T14">
+        <f>POWER(U14, -2/3)</f>
+        <v>2.3589964027269698E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>276</v>
+      </c>
+      <c r="V14" s="1">
+        <v>43867.633449333698</v>
+      </c>
+      <c r="W14" s="1">
+        <v>51322.651474181599</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="15">
+      <c r="B15">
+        <f t="shared" ref="B15:B21" si="3">POWER(E15, -2/3)</f>
+        <v>9.244816991341798E-3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>316</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1125</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9523</v>
+      </c>
+      <c r="G15" s="1">
+        <v>515219</v>
+      </c>
+      <c r="H15" s="1">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.25977430000784801</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.45955625904484299</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.82253943171544996</v>
+      </c>
+      <c r="L15" s="1">
+        <v>43882.061463658203</v>
+      </c>
+      <c r="M15" s="1">
+        <v>51280.927736569298</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N20" si="4">ABS(L15-L$3)/L$3</f>
+        <v>1.5200959251780293E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:O20" si="5">ABS(M15-M$3)/M$3</f>
+        <v>1.3451268438306164E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:P20" si="6">POWER(Q15, -2/3)</f>
+        <v>1.2541418807821739E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>712</v>
+      </c>
+      <c r="R15" s="1">
+        <v>43869.935252372998</v>
+      </c>
+      <c r="S15" s="1">
+        <v>51266.894289933603</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T20" si="7">POWER(U15, -2/3)</f>
+        <v>8.8505717748640737E-3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1201</v>
+      </c>
+      <c r="V15" s="1">
+        <v>43350.193065364001</v>
+      </c>
+      <c r="W15" s="1">
+        <v>51361.142313324097</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="15">
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>4.0900674301901302E-3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>895</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3823</v>
+      </c>
+      <c r="F16" s="1">
+        <v>54026</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2686968</v>
+      </c>
+      <c r="H16" s="1">
+        <v>95</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.4649351999978499</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-9.11462974859647E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7.2554285869626006E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>43311.6487098992</v>
+      </c>
+      <c r="M16" s="1">
+        <v>51315.820912457399</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>2.0045971058230234E-3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>6.656102734683805E-4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>5.201076439825667E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2666</v>
+      </c>
+      <c r="R16" s="1">
+        <v>43425.458661659301</v>
+      </c>
+      <c r="S16" s="1">
+        <v>51460.983007263698</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>4.6291811951746078E-3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>3175</v>
+      </c>
+      <c r="V16" s="1">
+        <v>43327.347302153597</v>
+      </c>
+      <c r="W16" s="1">
+        <v>51344.228397478102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="15">
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>3.1280367967548356E-3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1316</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5716</v>
+      </c>
+      <c r="F17" s="1">
+        <v>81814</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4221941</v>
+      </c>
+      <c r="H17" s="1">
+        <v>174</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.7494918000011199</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-9.7453597931889693E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.3962709471409696E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>43264.191634209099</v>
+      </c>
+      <c r="M17" s="1">
+        <v>51351.081949462103</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>9.0668905052860595E-4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>2.1070096632965613E-5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>5.0361832767190943E-3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2798</v>
+      </c>
+      <c r="R17" s="1">
+        <v>43425.690398228697</v>
+      </c>
+      <c r="S17" s="1">
+        <v>51461.344766818103</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>3.747503846792961E-3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4359</v>
+      </c>
+      <c r="V17" s="1">
+        <v>43294.767433335801</v>
+      </c>
+      <c r="W17" s="1">
+        <v>51350.8734899993</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15">
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>2.0461789677184484E-3</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2380</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10804</v>
+      </c>
+      <c r="F18" s="1">
+        <v>154656</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8025074</v>
+      </c>
+      <c r="H18" s="1">
+        <v>159</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.1772972999897302</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-0.11547417755999199</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.9345157653836101E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>43241.898413668598</v>
+      </c>
+      <c r="M18" s="1">
+        <v>51354.154646979499</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>3.909407442127852E-4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>8.0908412453736616E-5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>2.6455410318490568E-3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>7349</v>
+      </c>
+      <c r="R18" s="1">
+        <v>43275.689620440397</v>
+      </c>
+      <c r="S18" s="1">
+        <v>51348.0972970191</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>2.1851346586013731E-3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>9790</v>
+      </c>
+      <c r="V18" s="1">
+        <v>43251.708675861199</v>
+      </c>
+      <c r="W18" s="1">
+        <v>51364.391571068998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="15">
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>1.2136691921972934E-3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4842</v>
+      </c>
+      <c r="E19" s="1">
+        <v>23651</v>
+      </c>
+      <c r="F19" s="1">
+        <v>339380</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17801350</v>
+      </c>
+      <c r="H19" s="1">
+        <v>163</v>
+      </c>
+      <c r="I19" s="1">
+        <v>18.730708599992699</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-0.11733191992270001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6.9728550815815901E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>43233.261220576103</v>
+      </c>
+      <c r="M19" s="1">
+        <v>51352.0249101589</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>1.9112135514409183E-4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>3.9433498712750323E-5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>1.2210458914379795E-3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>23437</v>
+      </c>
+      <c r="R19" s="1">
+        <v>43245.489811792897</v>
+      </c>
+      <c r="S19" s="1">
+        <v>51363.016042917901</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>1.4065448770768864E-3</v>
+      </c>
+      <c r="U19" s="1">
+        <v>18957</v>
+      </c>
+      <c r="V19" s="1">
+        <v>43244.021149754299</v>
+      </c>
+      <c r="W19" s="1">
+        <v>51366.556703505899</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="15">
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>9.2428466533073998E-4</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7229</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35587</v>
+      </c>
+      <c r="F20" s="1">
+        <v>511435</v>
+      </c>
+      <c r="G20" s="1">
+        <v>26998554</v>
+      </c>
+      <c r="H20" s="1">
+        <v>180</v>
+      </c>
+      <c r="I20" s="1">
+        <v>30.167621400003501</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-0.117476203911396</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6.9763999915326794E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>43229.1004055675</v>
+      </c>
+      <c r="M20" s="1">
+        <v>51350.946290517102</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9.4861898611920753E-5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>1.8428247655348984E-5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>8.6017115243782491E-4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>39639</v>
+      </c>
+      <c r="R20" s="1">
+        <v>43241.868224155798</v>
+      </c>
+      <c r="S20" s="1">
+        <v>51363.347225246602</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="7"/>
+        <v>9.8558644889164292E-4</v>
+      </c>
+      <c r="U20" s="1">
+        <v>32319</v>
+      </c>
+      <c r="V20" s="1">
+        <v>43241.513017277197</v>
+      </c>
+      <c r="W20" s="1">
+        <v>51365.188881980903</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="15">
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>5.9791263563355743E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13571</v>
+      </c>
+      <c r="E21" s="1">
+        <v>68398</v>
+      </c>
+      <c r="F21" s="1">
+        <v>980192</v>
+      </c>
+      <c r="G21" s="1">
+        <v>51256175</v>
+      </c>
+      <c r="H21" s="1">
+        <v>275</v>
+      </c>
+      <c r="I21" s="1">
+        <v>86.227072300000103</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-0.118478514631915</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7.0072499353680706E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>43225.077558475903</v>
+      </c>
+      <c r="M21" s="1">
+        <v>51349.473504412097</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Kelvin/Sphere.xlsx
+++ b/Kelvin/Sphere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="72" windowWidth="12456" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="72" windowWidth="12456" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>mr</t>
     <phoneticPr fontId="1"/>
@@ -150,6 +151,38 @@
   </si>
   <si>
     <t>rk=8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dof</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nonzero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICCG Iter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Um</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adaptive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No Adaptyve </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,23 +593,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="125215872"/>
-        <c:axId val="125217408"/>
+        <c:axId val="49548672"/>
+        <c:axId val="49566848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125215872"/>
+        <c:axId val="49548672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125217408"/>
+        <c:crossAx val="49566848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125217408"/>
+        <c:axId val="49566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,20 +617,361 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125215872"/>
+        <c:crossAx val="49548672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20780774278215222"/>
+          <c:y val="7.9178331875182265E-2"/>
+          <c:w val="0.65723403324584428"/>
+          <c:h val="0.72414734616506271"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adaptive, Um</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.4742247578671728E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.263508405512425E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4563892004234523E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7216140397667742E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2235493520364411E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.203604788447591E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5466857044636512E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Adaptive, Wj</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$R$4:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.090921013451441E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4572982988526503E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3571526583932292E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2479711528159778E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1018213193418614E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1865547042853648E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5350097701177345E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Simple, Um</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$M$17:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4742247578671728E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5596329676325151E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1760416114698357E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Simple, Wj</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$R$17:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.090921013451441E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0984290576828557E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1922384306200198E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="143915264"/>
+        <c:axId val="143925248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143915264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+                  <a:t>Ne</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143925248"/>
+        <c:crossesAt val="1.0000000000000002E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143925248"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143915264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62394444444444441"/>
+          <c:y val="7.7935987168270646E-2"/>
+          <c:w val="0.23716666666666666"/>
+          <c:h val="0.33486876640419949"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -675,23 +1049,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="125335424"/>
-        <c:axId val="125336960"/>
+        <c:axId val="49586560"/>
+        <c:axId val="49588096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125335424"/>
+        <c:axId val="49586560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125336960"/>
+        <c:crossAx val="49588096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125336960"/>
+        <c:axId val="49588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43300"/>
@@ -701,20 +1075,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125335424"/>
+        <c:crossAx val="49586560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -792,23 +1165,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="125348480"/>
-        <c:axId val="125350272"/>
+        <c:axId val="49607808"/>
+        <c:axId val="49609344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125348480"/>
+        <c:axId val="49607808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125350272"/>
+        <c:crossAx val="49609344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125350272"/>
+        <c:axId val="49609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,20 +1189,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125348480"/>
+        <c:crossAx val="49607808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -971,11 +1343,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="125968768"/>
-        <c:axId val="125970304"/>
+        <c:axId val="143547008"/>
+        <c:axId val="143569280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125968768"/>
+        <c:axId val="143547008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -984,12 +1356,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125970304"/>
+        <c:crossAx val="143569280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125970304"/>
+        <c:axId val="143569280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -998,20 +1370,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125968768"/>
+        <c:crossAx val="143547008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1153,11 +1524,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="126011264"/>
-        <c:axId val="126012800"/>
+        <c:axId val="143655296"/>
+        <c:axId val="143656832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126011264"/>
+        <c:axId val="143655296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1166,12 +1537,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126012800"/>
+        <c:crossAx val="143656832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126012800"/>
+        <c:axId val="143656832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1180,20 +1551,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126011264"/>
+        <c:crossAx val="143655296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1211,7 +1581,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.2801550743657043"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.67151159230096236"/>
+          <c:w val="0.67151159230096269"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1424,25 +1794,25 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="126246272"/>
-        <c:axId val="126256256"/>
+        <c:axId val="143706752"/>
+        <c:axId val="143712640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126246272"/>
+        <c:axId val="143706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.0000000000000018E-3"/>
+          <c:max val="4.0000000000000044E-3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126256256"/>
+        <c:crossAx val="143712640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126256256"/>
+        <c:axId val="143712640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43300"/>
@@ -1452,20 +1822,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126246272"/>
+        <c:crossAx val="143706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1481,9 +1850,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16423840769903764"/>
+          <c:x val="0.16423840769903772"/>
           <c:y val="4.6770924467774859E-2"/>
-          <c:w val="0.67151159230096247"/>
+          <c:w val="0.67151159230096269"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -1696,24 +2065,24 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="126272640"/>
-        <c:axId val="126274176"/>
+        <c:axId val="143721600"/>
+        <c:axId val="143723136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126272640"/>
+        <c:axId val="143721600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.0000000000000018E-3"/>
+          <c:max val="4.0000000000000044E-3"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126274176"/>
+        <c:crossAx val="143723136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126274176"/>
+        <c:axId val="143723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="51370"/>
@@ -1723,7 +2092,327 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126272640"/>
+        <c:crossAx val="143721600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14530217758436603"/>
+          <c:y val="4.720459049761639E-2"/>
+          <c:w val="0.61624574075728378"/>
+          <c:h val="0.84628327709036366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.4488766856936764E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9873596637979553E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4632007466735771E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0318601042324951E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7785960973235115E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3389916287713472E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5849625335967113E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.5243258627780982E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4131559859447804E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8761357641036721E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6080974403446856E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9401201608896832E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9065351246855093E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4677381067027442E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2076763190993732E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8041188142157131E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6214333110094034E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0275587396543709E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3073489307480821E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2296782985799024E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4493359947114102E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$Q$4:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.627474724526257E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2409418650478951E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7658609395857143E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5236764347815452E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0371463868318283E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1731079065692323E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5604358082271658E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="143798656"/>
+        <c:axId val="143800192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143798656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143800192"/>
+        <c:crossesAt val="1.0000000000000008E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143800192"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143798656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1736,7 +2425,573 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14530217758436609"/>
+          <c:y val="4.7204590497616404E-2"/>
+          <c:w val="0.61624574075728378"/>
+          <c:h val="0.84628327709036366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simple,Um,real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$17:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4488766856936764E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0404143819441302E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2253158119596971E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Simple,Um, imag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$L$17:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5243258627780982E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.955100281452233E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1978547730987517E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Simple,Wj,real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$O$17:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2076763190993732E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.309066186132928E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.808375020786577E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Simple,Wj,imag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$Q$17:$Q$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.627474724526257E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8256703803753621E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9770171770540947E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Adaptive,Um,real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.4488766856936764E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9873596637979553E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4632007466735771E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0318601042324951E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7785960973235115E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3389916287713472E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5849625335967113E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Adaptive,Um,imag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.5243258627780982E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4131559859447804E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8761357641036721E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6080974403446856E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9401201608896832E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9065351246855093E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4677381067027442E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Adaptive,Wj,real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2076763190993732E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8041188142157131E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6214333110094034E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0275587396543709E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3073489307480821E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2296782985799024E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4493359947114102E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Adaptive,Um,imag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$Q$4:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.627474724526257E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2409418650478951E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7658609395857143E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5236764347815452E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0371463868318283E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1731079065692323E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5604358082271658E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="143862784"/>
+        <c:axId val="143885056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="143862784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143885056"/>
+        <c:crossesAt val="1.0000000000000014E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143885056"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143862784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1941,16 +3196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2000,6 +3255,266 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>55366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470170</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564880" y="939286"/>
+          <a:ext cx="3487690" cy="2903397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189711</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>135949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1821180" y="3797456"/>
+          <a:ext cx="3245331" cy="2023013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483073</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3416632"/>
+          <a:ext cx="3531073" cy="2242423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14749</cdr:x>
+      <cdr:y>0.55867</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76499</cdr:x>
+      <cdr:y>0.89031</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="693420" y="1668780"/>
+          <a:ext cx="2903220" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2594,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15:T20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3602,6 +5117,10 @@
       <c r="C24">
         <v>2</v>
       </c>
+      <c r="W24">
+        <f>150*SQRT(2)</f>
+        <v>212.13203435596427</v>
+      </c>
     </row>
     <row r="25" spans="2:23">
       <c r="C25">
@@ -3633,13 +5152,751 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:18">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="3:18">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="3:18">
+      <c r="I3">
+        <v>24109.599999999999</v>
+      </c>
+      <c r="K3">
+        <v>-17110.900000000001</v>
+      </c>
+      <c r="M3">
+        <f>SQRT(I3*I3+K3*K3)</f>
+        <v>29564.433209009774</v>
+      </c>
+      <c r="N3">
+        <v>18305.3</v>
+      </c>
+      <c r="P3">
+        <v>32993.199999999997</v>
+      </c>
+      <c r="R3">
+        <f>SQRT(N3*N3+P3*P3)</f>
+        <v>37731.091348250178</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" ht="15">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>239</v>
+      </c>
+      <c r="E4" s="1">
+        <f>POWER(D4, -2/3)</f>
+        <v>2.5965781568601468E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3368</v>
+      </c>
+      <c r="G4" s="1">
+        <v>158502</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>26146.590373414001</v>
+      </c>
+      <c r="J4" s="1">
+        <f>ABS(I4-I$3)/I$3</f>
+        <v>8.4488766856936764E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-18569.488874054099</v>
+      </c>
+      <c r="L4" s="1">
+        <f>-ABS(K4-K$3)/K$3</f>
+        <v>8.5243258627780982E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SQRT((I4-I$3)^2+(K4-K$3)^2)/M$3</f>
+        <v>8.4742247578671728E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>16802.860226759902</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O10" si="0">ABS(N4-N$3)/N$3</f>
+        <v>8.2076763190993732E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>31796.3800091876</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q10" si="1">ABS(P4-P$3)/P$3</f>
+        <v>3.627474724526257E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f>SQRT((N4-N$3)^2+(P4-P$3)^2)/R$3</f>
+        <v>5.090921013451441E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" ht="15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>656</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="2">POWER(D5, -2/3)</f>
+        <v>1.3245370383440896E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9707</v>
+      </c>
+      <c r="G5" s="1">
+        <v>524495</v>
+      </c>
+      <c r="H5" s="1">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1">
+        <v>24350.391246550302</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J10" si="3">ABS(I5-I$3)/I$3</f>
+        <v>9.9873596637979553E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-17069.608729240099</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L10" si="4">-ABS(K5-K$3)/K$3</f>
+        <v>2.4131559859447804E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M10" si="5">SQRT((I5-I$3)^2+(K5-K$3)^2)/M$3</f>
+        <v>8.263508405512425E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18304.603644638701</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8041188142157131E-5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>32787.291356858099</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2409418650478951E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R10" si="6">SQRT((N5-N$3)^2+(P5-P$3)^2)/R$3</f>
+        <v>5.4572982988526503E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="15">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1533</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5215133399826675E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24515</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1650916</v>
+      </c>
+      <c r="H6" s="1">
+        <v>107</v>
+      </c>
+      <c r="I6" s="1">
+        <v>24130.004438472199</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4632007466735771E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-17102.556492855401</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8761357641036721E-4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>7.4563892004234523E-4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18310.098612318801</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6214333110094034E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>32977.475899684803</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7658609395857143E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3571526583932292E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" ht="15">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4408</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7196802554701845E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>72733</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5368908</v>
+      </c>
+      <c r="H7" s="1">
+        <v>940</v>
+      </c>
+      <c r="I7" s="1">
+        <v>24128.964493436899</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0318601042324951E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-17115.362689449201</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6080974403446856E-4</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7216140397667742E-4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18316.333627099699</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0275587396543709E-4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>33004.825736134801</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5236764347815452E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2479711528159778E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" ht="15">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6971</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7403326057456588E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>116292</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8820650</v>
+      </c>
+      <c r="H8" s="1">
+        <v>304</v>
+      </c>
+      <c r="I8" s="1">
+        <v>24125.942924046802</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7785960973235115E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-17119.352990206098</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9401201608896832E-4</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2235493520364411E-4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>18316.845791438202</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3073489307480821E-4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>33013.118477816999</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0371463868318283E-4</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="6"/>
+        <v>6.1018213193418614E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="15">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17833</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4650430738962961E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>298392</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22924724</v>
+      </c>
+      <c r="H9" s="1">
+        <v>230</v>
+      </c>
+      <c r="I9" s="1">
+        <v>24115.239215257301</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3389916287713472E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-17114.1622531865</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9065351246855093E-4</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>2.203604788447591E-4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>18309.381493015899</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2296782985799024E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>33000.369778378299</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1731079065692323E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1865547042853648E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" ht="15">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35618</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2374828891904066E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>601653</v>
+      </c>
+      <c r="G10" s="1">
+        <v>47242744</v>
+      </c>
+      <c r="H10" s="1">
+        <v>192</v>
+      </c>
+      <c r="I10" s="1">
+        <v>24113.421281269999</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5849625335967113E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-17113.411431996999</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4677381067027442E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5466857044636512E-4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>18307.953053018398</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4493359947114102E-4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>32998.348377070797</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5604358082271658E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5350097701177345E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="I16">
+        <v>24109.599999999999</v>
+      </c>
+      <c r="K16">
+        <v>-17110.900000000001</v>
+      </c>
+      <c r="M16">
+        <f>SQRT(I16*I16+K16*K16)</f>
+        <v>29564.433209009774</v>
+      </c>
+      <c r="N16">
+        <v>18305.3</v>
+      </c>
+      <c r="P16">
+        <v>32993.199999999997</v>
+      </c>
+      <c r="R16">
+        <f>SQRT(N16*N16+P16*P16)</f>
+        <v>37731.091348250178</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="15">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>239</v>
+      </c>
+      <c r="E17" s="1">
+        <f>POWER(D17, -2/3)</f>
+        <v>2.5965781568601468E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3368</v>
+      </c>
+      <c r="G17" s="1">
+        <v>158502</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1">
+        <v>26146.590373414001</v>
+      </c>
+      <c r="J17" s="1">
+        <f>ABS(I17-I$3)/I$3</f>
+        <v>8.4488766856936764E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-18569.488874054099</v>
+      </c>
+      <c r="L17" s="1">
+        <f>-ABS(K17-K$3)/K$3</f>
+        <v>8.5243258627780982E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <f>SQRT((I17-I$3)^2+(K17-K$3)^2)/M$3</f>
+        <v>8.4742247578671728E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>16802.860226759902</v>
+      </c>
+      <c r="O17" s="1">
+        <f>ABS(N17-N$3)/N$3</f>
+        <v>8.2076763190993732E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>31796.3800091876</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>ABS(P17-P$3)/P$3</f>
+        <v>3.627474724526257E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <f>SQRT((N17-N$3)^2+(P17-P$3)^2)/R$3</f>
+        <v>5.090921013451441E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="15">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1912</v>
+      </c>
+      <c r="E18" s="1">
+        <f>POWER(D18, -2/3)</f>
+        <v>6.4914453921503714E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>27239</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1370121</v>
+      </c>
+      <c r="H18" s="1">
+        <v>102</v>
+      </c>
+      <c r="I18" s="1">
+        <v>24360.439745829201</v>
+      </c>
+      <c r="J18" s="1">
+        <f>ABS(I18-I$3)/I$3</f>
+        <v>1.0404143819441302E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-17077.4464745941</v>
+      </c>
+      <c r="L18" s="1">
+        <f>-ABS(K18-K$3)/K$3</f>
+        <v>1.955100281452233E-3</v>
+      </c>
+      <c r="M18" s="1">
+        <f>SQRT((I18-I$3)^2+(K18-K$3)^2)/M$3</f>
+        <v>8.5596329676325151E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>18313.187874925701</v>
+      </c>
+      <c r="O18" s="1">
+        <f>ABS(N18-N$3)/N$3</f>
+        <v>4.309066186132928E-4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>32800.992492006197</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>ABS(P18-P$3)/P$3</f>
+        <v>5.8256703803753621E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <f>SQRT((N18-N$3)^2+(P18-P$3)^2)/R$3</f>
+        <v>5.0984290576828557E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="15">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15296</v>
+      </c>
+      <c r="E19" s="1">
+        <f>POWER(D19, -2/3)</f>
+        <v>1.6228613480375913E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>219154</v>
+      </c>
+      <c r="G19" s="1">
+        <v>11381344</v>
+      </c>
+      <c r="H19" s="1">
+        <v>208</v>
+      </c>
+      <c r="I19" s="1">
+        <v>24127.019947410001</v>
+      </c>
+      <c r="J19" s="1">
+        <f>ABS(I19-I$3)/I$3</f>
+        <v>7.2253158119596971E-4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-17105.4281826763</v>
+      </c>
+      <c r="L19" s="1">
+        <f>-ABS(K19-K$3)/K$3</f>
+        <v>3.1978547730987517E-4</v>
+      </c>
+      <c r="M19" s="1">
+        <f>SQRT((I19-I$3)^2+(K19-K$3)^2)/M$3</f>
+        <v>6.1760416114698357E-4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>18312.2713447268</v>
+      </c>
+      <c r="O19" s="1">
+        <f>ABS(N19-N$3)/N$3</f>
+        <v>3.808375020786577E-4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>32983.377867687399</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>ABS(P19-P$3)/P$3</f>
+        <v>2.9770171770540947E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <f>SQRT((N19-N$3)^2+(P19-P$3)^2)/R$3</f>
+        <v>3.1922384306200198E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="15">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="3:18" ht="15">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="3:18" ht="15">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="3:18" ht="15">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>